--- a/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_10-100/SkewedTasks_4_GENERAL.xlsx
+++ b/SCFrameworkImpl/Results/Current Results/ChangeTaskRate_10-100/SkewedTasks_4_GENERAL.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5535" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="5535"/>
   </bookViews>
   <sheets>
     <sheet name="SkewedTasks_4_GENERAL" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1065,11 +1065,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="425856504"/>
-        <c:axId val="425852976"/>
+        <c:axId val="382095704"/>
+        <c:axId val="382096096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="425856504"/>
+        <c:axId val="382095704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425852976"/>
+        <c:crossAx val="382096096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1120,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425852976"/>
+        <c:axId val="382096096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,7 +1171,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425856504"/>
+        <c:crossAx val="382095704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2005,11 +2005,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="261184888"/>
-        <c:axId val="261188024"/>
+        <c:axId val="382096880"/>
+        <c:axId val="382097272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="261184888"/>
+        <c:axId val="382096880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261188024"/>
+        <c:crossAx val="382097272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2060,7 +2060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="261188024"/>
+        <c:axId val="382097272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2112,7 +2112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="261184888"/>
+        <c:crossAx val="382096880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3609,7 +3609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -14622,8 +14622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
